--- a/MetroSystem/data/lines_HK.xlsx
+++ b/MetroSystem/data/lines_HK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\城大\课程\Year 3 Sem A\CS3343\CS3343_Group6\MetroSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133076A-85C8-4250-94E8-EB67CC4E701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A197F-45DA-4B11-90B2-E895032A2D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8652" yWindow="1776" windowWidth="11052" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="11052" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Island Line</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,23 @@
   </si>
   <si>
     <t>东铁线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>繁體中文</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,230 +486,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="E2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="G1">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="H1">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="I1">
-        <v>6</v>
-      </c>
-      <c r="J1">
-        <v>7</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>10</v>
-      </c>
-      <c r="N1">
-        <v>11</v>
-      </c>
-      <c r="O1">
-        <v>12</v>
-      </c>
-      <c r="P1">
-        <v>13</v>
-      </c>
-      <c r="Q1">
-        <v>14</v>
-      </c>
-      <c r="R1">
-        <v>15</v>
-      </c>
-      <c r="S1">
-        <v>16</v>
-      </c>
-      <c r="T1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
+      <c r="D3">
         <v>18</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>24</v>
-      </c>
-      <c r="M2">
-        <v>25</v>
-      </c>
-      <c r="N2">
-        <v>26</v>
-      </c>
-      <c r="O2">
-        <v>27</v>
-      </c>
-      <c r="P2">
-        <v>28</v>
-      </c>
-      <c r="Q2">
-        <v>29</v>
-      </c>
-      <c r="R2">
-        <v>30</v>
-      </c>
-      <c r="S2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>33</v>
       </c>
       <c r="E3">
         <v>32</v>
       </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>34</v>
-      </c>
-      <c r="J3">
-        <v>35</v>
-      </c>
-      <c r="K3">
-        <v>36</v>
-      </c>
-      <c r="L3">
-        <v>37</v>
-      </c>
-      <c r="M3">
-        <v>38</v>
-      </c>
-      <c r="N3">
-        <v>39</v>
-      </c>
-      <c r="O3">
-        <v>40</v>
-      </c>
-      <c r="P3">
-        <v>41</v>
-      </c>
-      <c r="Q3">
-        <v>42</v>
-      </c>
-      <c r="R3">
-        <v>43</v>
-      </c>
-      <c r="S3">
-        <v>44</v>
-      </c>
-      <c r="T3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>45</v>
-      </c>
-      <c r="H4">
-        <v>46</v>
-      </c>
-      <c r="I4">
-        <v>47</v>
-      </c>
-      <c r="J4">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -703,25 +573,13 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>44</v>
-      </c>
-      <c r="G5">
-        <v>45</v>
-      </c>
-      <c r="H5">
-        <v>46</v>
-      </c>
-      <c r="I5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -732,31 +590,13 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>52</v>
-      </c>
-      <c r="G6">
-        <v>53</v>
-      </c>
-      <c r="H6">
-        <v>27</v>
-      </c>
-      <c r="I6">
-        <v>54</v>
-      </c>
-      <c r="J6">
-        <v>55</v>
-      </c>
-      <c r="K6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -767,22 +607,13 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E7">
-        <v>51</v>
-      </c>
-      <c r="F7">
-        <v>54</v>
-      </c>
-      <c r="G7">
-        <v>57</v>
-      </c>
-      <c r="H7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -793,13 +624,13 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -810,22 +641,13 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>60</v>
-      </c>
-      <c r="F9">
-        <v>61</v>
-      </c>
-      <c r="G9">
-        <v>62</v>
-      </c>
-      <c r="H9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -836,85 +658,13 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E10">
-        <v>65</v>
-      </c>
-      <c r="F10">
-        <v>66</v>
-      </c>
-      <c r="G10">
-        <v>67</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="I10">
-        <v>69</v>
-      </c>
-      <c r="J10">
-        <v>70</v>
-      </c>
-      <c r="K10">
-        <v>26</v>
-      </c>
-      <c r="L10">
-        <v>53</v>
-      </c>
-      <c r="M10">
-        <v>71</v>
-      </c>
-      <c r="N10">
-        <v>72</v>
-      </c>
-      <c r="O10">
-        <v>73</v>
-      </c>
-      <c r="P10">
-        <v>74</v>
-      </c>
-      <c r="Q10">
-        <v>75</v>
-      </c>
-      <c r="R10">
-        <v>76</v>
-      </c>
-      <c r="S10">
-        <v>38</v>
-      </c>
-      <c r="T10">
-        <v>77</v>
-      </c>
-      <c r="U10">
-        <v>78</v>
-      </c>
-      <c r="V10">
-        <v>79</v>
-      </c>
-      <c r="W10">
-        <v>80</v>
-      </c>
-      <c r="X10">
-        <v>81</v>
-      </c>
-      <c r="Y10">
-        <v>82</v>
-      </c>
-      <c r="Z10">
-        <v>83</v>
-      </c>
-      <c r="AA10">
-        <v>84</v>
-      </c>
-      <c r="AB10">
-        <v>85</v>
-      </c>
-      <c r="AC10">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -925,181 +675,10 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>87</v>
-      </c>
-      <c r="F11">
-        <v>35</v>
-      </c>
-      <c r="G11">
-        <v>78</v>
-      </c>
-      <c r="H11">
-        <v>88</v>
-      </c>
-      <c r="I11">
-        <v>89</v>
-      </c>
-      <c r="J11">
-        <v>91</v>
-      </c>
-      <c r="K11">
-        <v>92</v>
-      </c>
-      <c r="L11">
-        <v>93</v>
-      </c>
-      <c r="M11">
-        <v>94</v>
-      </c>
-      <c r="N11">
-        <v>95</v>
-      </c>
-      <c r="O11">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>73</v>
-      </c>
-      <c r="E12">
-        <v>87</v>
-      </c>
-      <c r="F12">
-        <v>35</v>
-      </c>
-      <c r="G12">
-        <v>78</v>
-      </c>
-      <c r="H12">
-        <v>88</v>
-      </c>
-      <c r="I12">
-        <v>89</v>
-      </c>
-      <c r="J12">
-        <v>91</v>
-      </c>
-      <c r="K12">
-        <v>92</v>
-      </c>
-      <c r="L12">
-        <v>93</v>
-      </c>
-      <c r="M12">
-        <v>94</v>
-      </c>
-      <c r="N12">
-        <v>95</v>
-      </c>
-      <c r="O12">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>73</v>
-      </c>
-      <c r="E13">
-        <v>87</v>
-      </c>
-      <c r="F13">
-        <v>35</v>
-      </c>
-      <c r="G13">
-        <v>78</v>
-      </c>
-      <c r="H13">
-        <v>88</v>
-      </c>
-      <c r="I13">
-        <v>90</v>
-      </c>
-      <c r="J13">
-        <v>91</v>
-      </c>
-      <c r="K13">
-        <v>92</v>
-      </c>
-      <c r="L13">
-        <v>93</v>
-      </c>
-      <c r="M13">
-        <v>94</v>
-      </c>
-      <c r="N13">
-        <v>95</v>
-      </c>
-      <c r="O13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>73</v>
-      </c>
-      <c r="E14">
-        <v>87</v>
-      </c>
-      <c r="F14">
-        <v>35</v>
-      </c>
-      <c r="G14">
-        <v>78</v>
-      </c>
-      <c r="H14">
-        <v>88</v>
-      </c>
-      <c r="I14">
-        <v>90</v>
-      </c>
-      <c r="J14">
-        <v>91</v>
-      </c>
-      <c r="K14">
-        <v>92</v>
-      </c>
-      <c r="L14">
-        <v>93</v>
-      </c>
-      <c r="M14">
-        <v>94</v>
-      </c>
-      <c r="N14">
-        <v>95</v>
-      </c>
-      <c r="O14">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
